--- a/biology/Zoologie/Barbu_de_Thuringe/Barbu_de_Thuringe.xlsx
+++ b/biology/Zoologie/Barbu_de_Thuringe/Barbu_de_Thuringe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le barbu de Thuringe ou la barbue de Thuringe est une race de poule domestique originaire d'Allemagne en Thuringe.
@@ -512,18 +524,90 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>grande race
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">grande race
 C'est une volaille de taille juste moyenne, au corps compact, en forme de cylindre, à la barbe très pleine, allongée et arrondie, non partagée et au camail richement emplumé, particulièrement sur la nuque; elle est active et un peu effrontée.
 Elle pond ~160 œufs par an.
 naine
 La volaille naine est de taille moyenne, vigoureuse, effrontée, au corps compact, en forme de cylindre, avec une barbe très pleine, allongée et arrondie, non partagée et un camail richement emplumé, particulièrement sur la nuque.
 Elle pond ~120 par an.
-Origine
-Cette race a été sélectionnée à partir de poules de la région de  Thuringe où elle était déjà connue en 1793. Le barbu de Thuringe arrive seulement dans les années 2000 en Angleterre[1]..
-Standard
-Crête : simple, de grandeur à peine moyenne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Barbu_de_Thuringe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barbu_de_Thuringe</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette race a été sélectionnée à partir de poules de la région de  Thuringe où elle était déjà connue en 1793. Le barbu de Thuringe arrive seulement dans les années 2000 en Angleterre..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Barbu_de_Thuringe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barbu_de_Thuringe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Crête : simple, de grandeur à peine moyenne.
 Oreillons : sans importance, cachés par la barbe.
 Couleur des yeux : selon la variété.
 Couleur de la peau : blanche.
